--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H2">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>2620.274637569469</v>
+        <v>221.0990153490724</v>
       </c>
       <c r="R2">
-        <v>23582.47173812522</v>
+        <v>1989.891138141652</v>
       </c>
       <c r="S2">
-        <v>0.01713642911526152</v>
+        <v>0.001818510806315634</v>
       </c>
       <c r="T2">
-        <v>0.01713642911526152</v>
+        <v>0.001818510806315634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H3">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>20097.70859421536</v>
+        <v>20888.29669366387</v>
       </c>
       <c r="R3">
-        <v>180879.3773479383</v>
+        <v>187994.6702429748</v>
       </c>
       <c r="S3">
-        <v>0.131437733192509</v>
+        <v>0.1718035388035672</v>
       </c>
       <c r="T3">
-        <v>0.1314377331925089</v>
+        <v>0.1718035388035672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H4">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>3341.670231666488</v>
+        <v>3346.912582192649</v>
       </c>
       <c r="R4">
-        <v>30075.03208499839</v>
+        <v>30122.21323973384</v>
       </c>
       <c r="S4">
-        <v>0.02185431031941366</v>
+        <v>0.02752792312938099</v>
       </c>
       <c r="T4">
-        <v>0.02185431031941366</v>
+        <v>0.02752792312938099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H5">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>12316.65408051365</v>
+        <v>9433.69261799597</v>
       </c>
       <c r="R5">
-        <v>110849.8867246228</v>
+        <v>84903.23356196373</v>
       </c>
       <c r="S5">
-        <v>0.08055013263178334</v>
+        <v>0.07759090171523764</v>
       </c>
       <c r="T5">
-        <v>0.08055013263178334</v>
+        <v>0.07759090171523762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J6">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>4368.883432414062</v>
+        <v>354.694104522546</v>
       </c>
       <c r="R6">
-        <v>39319.95089172656</v>
+        <v>3192.246940702913</v>
       </c>
       <c r="S6">
-        <v>0.02857221917846356</v>
+        <v>0.002917313136796848</v>
       </c>
       <c r="T6">
-        <v>0.02857221917846356</v>
+        <v>0.002917313136796848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J7">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>33509.67293573452</v>
@@ -883,10 +883,10 @@
         <v>301587.0564216106</v>
       </c>
       <c r="S7">
-        <v>0.2191511251169709</v>
+        <v>0.275612726060887</v>
       </c>
       <c r="T7">
-        <v>0.2191511251169709</v>
+        <v>0.275612726060887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J8">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>5571.693708130211</v>
+        <v>5369.224097998878</v>
       </c>
       <c r="R8">
-        <v>50145.2433731719</v>
+        <v>48323.0168819899</v>
       </c>
       <c r="S8">
-        <v>0.03643852171537521</v>
+        <v>0.04416117379955684</v>
       </c>
       <c r="T8">
-        <v>0.03643852171537521</v>
+        <v>0.04416117379955684</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J9">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>20536.02518743783</v>
+        <v>15133.83110367194</v>
       </c>
       <c r="R9">
-        <v>184824.2266869404</v>
+        <v>136204.4799330475</v>
       </c>
       <c r="S9">
-        <v>0.1343042957741958</v>
+        <v>0.1244738035559892</v>
       </c>
       <c r="T9">
-        <v>0.1343042957741958</v>
+        <v>0.1244738035559892</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H10">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>1200.194488081425</v>
+        <v>116.1916142370589</v>
       </c>
       <c r="R10">
-        <v>10801.75039273283</v>
+        <v>1045.72452813353</v>
       </c>
       <c r="S10">
-        <v>0.007849195452508997</v>
+        <v>0.0009556609999359526</v>
       </c>
       <c r="T10">
-        <v>0.007849195452508997</v>
+        <v>0.0009556609999359524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H11">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>9205.584304788152</v>
+        <v>10977.18552779438</v>
       </c>
       <c r="R11">
-        <v>82850.25874309336</v>
+        <v>98794.66975014939</v>
       </c>
       <c r="S11">
-        <v>0.06020393459591464</v>
+        <v>0.0902859312770314</v>
       </c>
       <c r="T11">
-        <v>0.06020393459591463</v>
+        <v>0.09028593127703138</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H12">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>1530.62359781955</v>
+        <v>1758.864348723199</v>
       </c>
       <c r="R12">
-        <v>13775.61238037595</v>
+        <v>15829.77913850879</v>
       </c>
       <c r="S12">
-        <v>0.01001018076887976</v>
+        <v>0.01446643179277219</v>
       </c>
       <c r="T12">
-        <v>0.01001018076887976</v>
+        <v>0.01446643179277219</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H13">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>5641.538534582774</v>
+        <v>4957.579624543436</v>
       </c>
       <c r="R13">
-        <v>50773.84681124497</v>
+        <v>44618.21662089092</v>
       </c>
       <c r="S13">
-        <v>0.03689530242851539</v>
+        <v>0.04077545124372832</v>
       </c>
       <c r="T13">
-        <v>0.03689530242851539</v>
+        <v>0.04077545124372831</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H14">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>2250.878532014568</v>
+        <v>101.2215575116861</v>
       </c>
       <c r="R14">
-        <v>20257.90678813111</v>
+        <v>910.994017605175</v>
       </c>
       <c r="S14">
-        <v>0.01472060212997766</v>
+        <v>0.0008325342194603892</v>
       </c>
       <c r="T14">
-        <v>0.01472060212997766</v>
+        <v>0.0008325342194603892</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H15">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>17264.41196994745</v>
+        <v>9562.891638213396</v>
       </c>
       <c r="R15">
-        <v>155379.707729527</v>
+        <v>86066.02474392056</v>
       </c>
       <c r="S15">
-        <v>0.1129081538621096</v>
+        <v>0.07865354694710282</v>
       </c>
       <c r="T15">
-        <v>0.1129081538621096</v>
+        <v>0.07865354694710282</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H16">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>2870.574586985762</v>
+        <v>1532.253338578336</v>
       </c>
       <c r="R16">
-        <v>25835.17128287186</v>
+        <v>13790.28004720503</v>
       </c>
       <c r="S16">
-        <v>0.01877337483050323</v>
+        <v>0.01260258554213232</v>
       </c>
       <c r="T16">
-        <v>0.01877337483050323</v>
+        <v>0.01260258554213232</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H17">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>10580.30019394973</v>
+        <v>4318.848088818744</v>
       </c>
       <c r="R17">
-        <v>95222.70174554754</v>
+        <v>38869.6327993687</v>
       </c>
       <c r="S17">
-        <v>0.06919448888761777</v>
+        <v>0.0355219669701051</v>
       </c>
       <c r="T17">
-        <v>0.06919448888761777</v>
+        <v>0.0355219669701051</v>
       </c>
     </row>
   </sheetData>
